--- a/file/qc_template.xlsx
+++ b/file/qc_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zyarga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\qc\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4527BA7-D4F3-4F86-96A5-01C996B12B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB889B3-E677-4CE0-AC9E-8A25F24CD909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5A016C25-2677-4BDA-8D85-36BD9B97EB8F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Item Code</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>TEST123</t>
+  </si>
+  <si>
+    <t>Expired (Year)</t>
   </si>
 </sst>
 </file>
@@ -50,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C644F94-241E-4AC8-BD86-10D5C7942F7C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,9 +414,10 @@
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -429,8 +433,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -445,6 +452,9 @@
       </c>
       <c r="E2" s="1">
         <v>45422</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
